--- a/sistematizacion/base_de_datos.xlsx
+++ b/sistematizacion/base_de_datos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I633"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14057,12 +14057,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14096,12 +14096,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14135,12 +14135,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14174,12 +14174,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14213,12 +14213,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14252,12 +14252,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -14291,12 +14291,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -14330,12 +14330,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14369,12 +14369,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14408,12 +14408,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14447,12 +14447,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -14486,12 +14486,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14525,12 +14525,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14564,12 +14564,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -14603,12 +14603,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14642,12 +14642,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -14681,12 +14681,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14720,12 +14720,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -14759,12 +14759,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -14798,12 +14798,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -14837,12 +14837,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>USR8</t>
+          <t>U8R8</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -14915,12 +14915,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -14954,12 +14954,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -14993,12 +14993,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15032,12 +15032,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15071,12 +15071,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15110,12 +15110,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15149,12 +15149,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -15188,12 +15188,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15227,12 +15227,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15266,12 +15266,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15305,12 +15305,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -15344,12 +15344,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -15383,12 +15383,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -15422,12 +15422,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15461,12 +15461,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15500,12 +15500,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15539,12 +15539,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15578,12 +15578,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>U8</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>USR7</t>
+          <t>U8R7</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -24230,6 +24230,3672 @@
         <v>0</v>
       </c>
       <c r="I633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Diastatea tenera (Flor de 5 pétalos)</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G634" t="n">
+        <v>96</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr"/>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G635" t="n">
+        <v>0</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>Diastatea tenera (Flor de 5 pétalos)</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G636" t="n">
+        <v>65</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G637" t="n">
+        <v>0</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G638" t="n">
+        <v>0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G639" t="n">
+        <v>48</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Tagetes lunulata (Flores naranjas con centro marrón)</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr"/>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G641" t="n">
+        <v>28</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>Diastatea tenera (Flor de 5 pétalos)</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G642" t="n">
+        <v>0</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>U4R8</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>Tagetes lunulata (Flores naranjas con centro marrón)</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>0</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G644" t="n">
+        <v>37</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>Tagetes lunulata (Flores naranjas con centro marrón)</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G645" t="n">
+        <v>0</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G646" t="n">
+        <v>0</v>
+      </c>
+      <c r="H646" t="n">
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G647" t="n">
+        <v>72</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H648" t="n">
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G649" t="n">
+        <v>32</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>Diastatea tenera (Flor de 5 pétalos)</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G650" t="n">
+        <v>14</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>U4R1</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H651" t="n">
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G652" t="n">
+        <v>24</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G653" t="n">
+        <v>56</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr"/>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Tagetes lunulata (Flores naranjas con centro marrón)</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G654" t="n">
+        <v>0</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G655" t="n">
+        <v>92</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Tagetes lunulata (Flores naranjas con centro marrón)</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G656" t="n">
+        <v>0</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G657" t="n">
+        <v>0</v>
+      </c>
+      <c r="H657" t="n">
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Tagetes lunulata (Flores naranjas con centro marrón)</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G658" t="n">
+        <v>9</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>U4R2</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>Género Wigandia</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G659" t="n">
+        <v>0</v>
+      </c>
+      <c r="H659" t="n">
+        <v>2</v>
+      </c>
+      <c r="I659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>Tagetes lunulata (Flores naranjas con centro marrón)</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G660" t="n">
+        <v>17</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>Verbesina sphaerocephala</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G661" t="n">
+        <v>0</v>
+      </c>
+      <c r="H661" t="n">
+        <v>2</v>
+      </c>
+      <c r="I661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G662" t="n">
+        <v>0</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G663" t="n">
+        <v>0</v>
+      </c>
+      <c r="H663" t="n">
+        <v>2</v>
+      </c>
+      <c r="I663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>Género Mimosa</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G664" t="n">
+        <v>0</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G665" t="n">
+        <v>0</v>
+      </c>
+      <c r="H665" t="n">
+        <v>2</v>
+      </c>
+      <c r="I665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>Género Mimosa</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G666" t="n">
+        <v>0</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>U3RR4</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>Única especie en la foto</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G667" t="n">
+        <v>0</v>
+      </c>
+      <c r="H667" t="n">
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>U3RR5</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G668" t="n">
+        <v>0</v>
+      </c>
+      <c r="H668" t="n">
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>U3RR5</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G669" t="n">
+        <v>0</v>
+      </c>
+      <c r="H669" t="n">
+        <v>2</v>
+      </c>
+      <c r="I669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>U3RR5</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G670" t="n">
+        <v>0</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>U3RR5</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G671" t="n">
+        <v>0</v>
+      </c>
+      <c r="H671" t="n">
+        <v>2</v>
+      </c>
+      <c r="I671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>U3RR5</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G672" t="n">
+        <v>0</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>U3RR5</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H673" t="n">
+        <v>2</v>
+      </c>
+      <c r="I673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>U3RR5</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G674" t="n">
+        <v>0</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>U3RR6</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G675" t="n">
+        <v>0</v>
+      </c>
+      <c r="H675" t="n">
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>U3RR6</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G676" t="n">
+        <v>0</v>
+      </c>
+      <c r="H676" t="n">
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>U3RR6</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G677" t="n">
+        <v>0</v>
+      </c>
+      <c r="H677" t="n">
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>U3RR6</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G678" t="n">
+        <v>0</v>
+      </c>
+      <c r="H678" t="n">
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>0</v>
+      </c>
+      <c r="H679" t="n">
+        <v>3</v>
+      </c>
+      <c r="I679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>Cosmos bipinnatus (rosa)</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>255</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>Alloispermum palmeri (flores blancas con centro amarillo)</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>0</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>0</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Cosmos bipinnatus (rosa)</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>150</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>Alloispermum palmeri (flores blancas con centro amarillo)</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>0</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G685" t="n">
+        <v>0</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>Cosmos bipinnatus (rosa)</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G686" t="n">
+        <v>88</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>Alloispermum palmeri (flores blancas con centro amarillo)</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G687" t="n">
+        <v>0</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G688" t="n">
+        <v>0</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>U5RR5</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>0</v>
+      </c>
+      <c r="H689" t="n">
+        <v>5</v>
+      </c>
+      <c r="I689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>U5RR6</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>Una con hoja verde clara
+La otra con hoja verde un poco mas fuerte</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G690" t="n">
+        <v>0</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>U5RR6</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>Familia Poaceae</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G691" t="n">
+        <v>0</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>U5RR6</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>Una con hoja verde clara
+La otra con hoja verde un poco mas fuerte</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G692" t="n">
+        <v>0</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>U5RR6</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>Una con hoja verde clara
+La otra con hoja verde un poco mas fuerte</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G693" t="n">
+        <v>0</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>U7RR1</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>Subfamilia Faboideae (rojo con azul)</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G694" t="n">
+        <v>73</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>U7RR1</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>Desmodium incanum (rosas pequeñas)</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G695" t="n">
+        <v>0</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>U7RR1</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Alloispermum palmeri (flores blancas con centro amarillo)</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G696" t="n">
+        <v>86</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>U7RR1</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>Diastatea tenera (Flor de 5 pétalos)</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G697" t="n">
+        <v>0</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>U7RR1</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Diastatea tenera (Flor de 5 pétalos)</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G698" t="n">
+        <v>90</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>U7RR1</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Diastatea tenera (Flor de 5 pétalos)</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G699" t="n">
+        <v>71</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>U7RR2</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G700" t="n">
+        <v>0</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>U7RR2</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>Oxalis decaphylla</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G701" t="n">
+        <v>0</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>U7RR2</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G702" t="n">
+        <v>0</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>U7RR2</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Oxalis decaphylla</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G703" t="n">
+        <v>0</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>U7RR2</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>Oxalis decaphylla</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G704" t="n">
+        <v>0</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>U1RR1</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Ageratina adenophora</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G705" t="n">
+        <v>70</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>U1RR1</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>Género tagetes (Flores amarillas que huelen)</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G706" t="n">
+        <v>60</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>U1RR1</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Flores blancas que tienen  2 pétalos</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G707" t="n">
+        <v>8</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>U1RR1</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G708" t="n">
+        <v>0</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+      <c r="I708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>U1RR1</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>Alloispermum palmeri (flores blancas con centro amarillo)</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G709" t="n">
+        <v>17</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+      <c r="I709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>U1RR2</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G710" t="n">
+        <v>0</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>U1RR2</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G711" t="n">
+        <v>0</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>U1RR2</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G712" t="n">
+        <v>0</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>U1RR2</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G713" t="n">
+        <v>0</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>0</v>
+      </c>
+      <c r="H714" t="n">
+        <v>2</v>
+      </c>
+      <c r="I714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G715" t="n">
+        <v>0</v>
+      </c>
+      <c r="H715" t="n">
+        <v>3</v>
+      </c>
+      <c r="I715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G716" t="n">
+        <v>0</v>
+      </c>
+      <c r="H716" t="n">
+        <v>4</v>
+      </c>
+      <c r="I716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G717" t="n">
+        <v>0</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G718" t="n">
+        <v>0</v>
+      </c>
+      <c r="H718" t="n">
+        <v>2</v>
+      </c>
+      <c r="I718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G719" t="n">
+        <v>0</v>
+      </c>
+      <c r="H719" t="n">
+        <v>2</v>
+      </c>
+      <c r="I719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G720" t="n">
+        <v>0</v>
+      </c>
+      <c r="H720" t="n">
+        <v>3</v>
+      </c>
+      <c r="I720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>U2RR7</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G721" t="n">
+        <v>0</v>
+      </c>
+      <c r="H721" t="n">
+        <v>3</v>
+      </c>
+      <c r="I721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>U9RR2</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G722" t="n">
+        <v>0</v>
+      </c>
+      <c r="H722" t="n">
+        <v>3</v>
+      </c>
+      <c r="I722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>U9RR2</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G723" t="n">
+        <v>0</v>
+      </c>
+      <c r="H723" t="n">
+        <v>2</v>
+      </c>
+      <c r="I723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>U9RR2</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H724" t="n">
+        <v>2</v>
+      </c>
+      <c r="I724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>U9RR2</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Género Melinis (Arbusto con algodoncitos)</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G725" t="n">
+        <v>0</v>
+      </c>
+      <c r="H725" t="n">
+        <v>2</v>
+      </c>
+      <c r="I725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>U9RR3</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Genero mimosa</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G726" t="n">
+        <v>0</v>
+      </c>
+      <c r="H726" t="n">
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>U9RR3</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Ageratina adenophora</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G727" t="n">
+        <v>160</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>U9RR3</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>Familia Poaceae</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>Herbacea</t>
+        </is>
+      </c>
+      <c r="G728" t="n">
+        <v>0</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>U9RR3</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
+      <c r="H729" t="n">
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>U6RR1</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Genero mimosa</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>0</v>
+      </c>
+      <c r="H730" t="n">
+        <v>3</v>
+      </c>
+      <c r="I730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>U6RR1</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>0</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2</v>
+      </c>
+      <c r="I731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>U6RR1</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G732" t="n">
+        <v>0</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2</v>
+      </c>
+      <c r="I732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>U6RR1</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Unica especie en la foto</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G733" t="n">
+        <v>0</v>
+      </c>
+      <c r="H733" t="n">
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>U6RR2</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G734" t="n">
+        <v>0</v>
+      </c>
+      <c r="H734" t="n">
+        <v>3</v>
+      </c>
+      <c r="I734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>U6RR2</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G735" t="n">
+        <v>0</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2</v>
+      </c>
+      <c r="I735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>U6RR2</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Parecen siembras de pino</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G736" t="n">
+        <v>0</v>
+      </c>
+      <c r="H736" t="n">
+        <v>4</v>
+      </c>
+      <c r="I736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>U6RR2</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>Parecen siembras de pino</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>0</v>
+      </c>
+      <c r="H737" t="n">
+        <v>5</v>
+      </c>
+      <c r="I737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>U6RR3</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>Género Mimosa</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>0</v>
+      </c>
+      <c r="H738" t="n">
+        <v>3</v>
+      </c>
+      <c r="I738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>U6RR3</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>0</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>U6RR3</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>Género Mimosa</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>0</v>
+      </c>
+      <c r="H740" t="n">
+        <v>4</v>
+      </c>
+      <c r="I740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>U6RR3</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G741" t="n">
+        <v>0</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>U6RR3</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G742" t="n">
+        <v>0</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2</v>
+      </c>
+      <c r="I742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>U6RR3</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>Género Mimosa</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>0</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2</v>
+      </c>
+      <c r="I743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>U6RR3</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>Muhlenbergia sp. (Cabello)</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>Arbusto</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>0</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="n">
         <v>1</v>
       </c>
     </row>
